--- a/FakeData/sensorData(stable).xlsx
+++ b/FakeData/sensorData(stable).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mervin\Desktop\CropTech\FakeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD27ADC3-0738-452F-8FA4-A49D7388BB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2C85A-C776-4ADE-A392-1970945C6C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E087AC0C-FE26-4401-AE00-E4A3E131CA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E087AC0C-FE26-4401-AE00-E4A3E131CA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,113 +403,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A4793E-84F5-4E76-80E4-C9B24D83124B}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.4</v>
-      </c>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
